--- a/graph_data/local.xlsx
+++ b/graph_data/local.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\euclid_edu2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUCLID~1\Nota\TNSORF~1\GRAPH_~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>local</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,13 @@
   </si>
   <si>
     <t>https://velog.velcdn.com/images/0902hero/post/01d1c0ea-18db-48cf-b0e9-a4f6f99b5232/image.png</t>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.velcdn.com/images/0902hero/post/d923ace6-8e6b-49b3-bc2a-8b1a38d304f0/image.png</t>
   </si>
 </sst>
 </file>
@@ -473,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,6 +624,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
